--- a/data/data_cn_lc.xlsx
+++ b/data/data_cn_lc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY216"/>
+  <dimension ref="A1:EE216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,36 @@
           <t>SC_SCC</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>rank_Assistant</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>rank_ChatGPT</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>rank_Web-Search</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>rank_GPT-3.5-Turbo-Instruct</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>rank_GPT-3.5-Turbo</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>rank_Claude-instant</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1522,6 +1552,36 @@
       <c r="DW2" t="inlineStr"/>
       <c r="DX2" t="inlineStr"/>
       <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1965,6 +2025,36 @@
       <c r="DW3" t="inlineStr"/>
       <c r="DX3" t="inlineStr"/>
       <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2429,6 +2519,36 @@
       <c r="DX4" t="inlineStr"/>
       <c r="DY4" t="n">
         <v>8.949999999999999</v>
+      </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2885,6 +3005,36 @@
       <c r="DY5" t="n">
         <v>34.24</v>
       </c>
+      <c r="DZ5" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3349,6 +3499,36 @@
       <c r="DX6" t="inlineStr"/>
       <c r="DY6" t="n">
         <v>13.24</v>
+      </c>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3805,6 +3985,36 @@
       <c r="DY7" t="n">
         <v>29.73</v>
       </c>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4260,6 +4470,36 @@
       <c r="DY8" t="n">
         <v>24.69</v>
       </c>
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4731,6 +4971,36 @@
       <c r="DY9" t="n">
         <v>28.25</v>
       </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5200,6 +5470,36 @@
       <c r="DY10" t="n">
         <v>42.06</v>
       </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5666,6 +5966,36 @@
       <c r="DX11" t="inlineStr"/>
       <c r="DY11" t="n">
         <v>15.83</v>
+      </c>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -6122,6 +6452,36 @@
       <c r="DY12" t="n">
         <v>17.6</v>
       </c>
+      <c r="DZ12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA12" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6587,6 +6947,36 @@
       <c r="DY13" t="n">
         <v>13.12</v>
       </c>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7052,6 +7442,36 @@
       <c r="DY14" t="n">
         <v>20.75</v>
       </c>
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7515,6 +7935,36 @@
       <c r="DY15" t="n">
         <v>12.18</v>
       </c>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7981,6 +8431,36 @@
       </c>
       <c r="DY16" t="n">
         <v>11.2</v>
+      </c>
+      <c r="DZ16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -8425,6 +8905,36 @@
       <c r="DW17" t="inlineStr"/>
       <c r="DX17" t="inlineStr"/>
       <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8889,6 +9399,36 @@
       </c>
       <c r="DY18" t="n">
         <v>13.48</v>
+      </c>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -9333,6 +9873,36 @@
       <c r="DW19" t="inlineStr"/>
       <c r="DX19" t="inlineStr"/>
       <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -9784,6 +10354,36 @@
       <c r="DY20" t="n">
         <v>14</v>
       </c>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -10251,6 +10851,36 @@
       <c r="DY21" t="n">
         <v>15.95</v>
       </c>
+      <c r="DZ21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -10717,6 +11347,36 @@
       </c>
       <c r="DY22" t="n">
         <v>6.43</v>
+      </c>
+      <c r="DZ22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -11170,6 +11830,36 @@
       <c r="DX23" t="inlineStr"/>
       <c r="DY23" t="n">
         <v>20.47</v>
+      </c>
+      <c r="DZ23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC23" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -11618,6 +12308,36 @@
       <c r="DW24" t="inlineStr"/>
       <c r="DX24" t="inlineStr"/>
       <c r="DY24" t="inlineStr"/>
+      <c r="DZ24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA24" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC24" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -12061,6 +12781,36 @@
       <c r="DW25" t="inlineStr"/>
       <c r="DX25" t="inlineStr"/>
       <c r="DY25" t="inlineStr"/>
+      <c r="DZ25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -12504,6 +13254,36 @@
       <c r="DW26" t="inlineStr"/>
       <c r="DX26" t="inlineStr"/>
       <c r="DY26" t="inlineStr"/>
+      <c r="DZ26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC26" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED26" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12959,6 +13739,36 @@
       <c r="DY27" t="n">
         <v>16.38</v>
       </c>
+      <c r="DZ27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA27" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC27" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED27" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -13414,6 +14224,36 @@
       <c r="DY28" t="n">
         <v>21.75</v>
       </c>
+      <c r="DZ28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC28" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13880,6 +14720,36 @@
       </c>
       <c r="DY29" t="n">
         <v>8.859999999999999</v>
+      </c>
+      <c r="DZ29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC29" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -14316,6 +15186,36 @@
       <c r="DW30" t="inlineStr"/>
       <c r="DX30" t="inlineStr"/>
       <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA30" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED30" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14759,6 +15659,36 @@
       <c r="DW31" t="inlineStr"/>
       <c r="DX31" t="inlineStr"/>
       <c r="DY31" t="inlineStr"/>
+      <c r="DZ31" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA31" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC31" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED31" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -15227,6 +16157,36 @@
       </c>
       <c r="DY32" t="n">
         <v>2.3</v>
+      </c>
+      <c r="DZ32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA32" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC32" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -15661,6 +16621,36 @@
       <c r="DW33" t="inlineStr"/>
       <c r="DX33" t="inlineStr"/>
       <c r="DY33" t="inlineStr"/>
+      <c r="DZ33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED33" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -16126,6 +17116,36 @@
       <c r="DY34" t="n">
         <v>20.2</v>
       </c>
+      <c r="DZ34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC34" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -16589,6 +17609,36 @@
       <c r="DY35" t="n">
         <v>6.52</v>
       </c>
+      <c r="DZ35" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC35" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED35" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -17054,6 +18104,36 @@
       <c r="DY36" t="n">
         <v>23.22</v>
       </c>
+      <c r="DZ36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC36" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED36" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EE36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -17514,6 +18594,36 @@
       </c>
       <c r="DY37" t="n">
         <v>21.04</v>
+      </c>
+      <c r="DZ37" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC37" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -17948,6 +19058,36 @@
       <c r="DW38" t="inlineStr"/>
       <c r="DX38" t="inlineStr"/>
       <c r="DY38" t="inlineStr"/>
+      <c r="DZ38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC38" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -18403,6 +19543,36 @@
       <c r="DY39" t="n">
         <v>23.95</v>
       </c>
+      <c r="DZ39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -18855,6 +20025,36 @@
       <c r="DX40" t="inlineStr"/>
       <c r="DY40" t="n">
         <v>20.54</v>
+      </c>
+      <c r="DZ40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC40" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED40" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -19311,6 +20511,36 @@
       <c r="DY41" t="n">
         <v>55.82</v>
       </c>
+      <c r="DZ41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC41" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -19769,6 +20999,36 @@
       </c>
       <c r="DY42" t="n">
         <v>18.85</v>
+      </c>
+      <c r="DZ42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC42" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -20224,6 +21484,36 @@
       </c>
       <c r="DY43" t="n">
         <v>50.94</v>
+      </c>
+      <c r="DZ43" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC43" t="inlineStr">
+        <is>
+          <t>C.</t>
+        </is>
+      </c>
+      <c r="ED43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -20668,6 +21958,36 @@
       <c r="DW44" t="inlineStr"/>
       <c r="DX44" t="inlineStr"/>
       <c r="DY44" t="inlineStr"/>
+      <c r="DZ44" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC44" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -21122,6 +22442,36 @@
       </c>
       <c r="DY45" t="n">
         <v>19.17</v>
+      </c>
+      <c r="DZ45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA45" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC45" t="inlineStr">
+        <is>
+          <t>B.</t>
+        </is>
+      </c>
+      <c r="ED45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -21562,6 +22912,36 @@
       <c r="DW46" t="inlineStr"/>
       <c r="DX46" t="inlineStr"/>
       <c r="DY46" t="inlineStr"/>
+      <c r="DZ46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC46" t="inlineStr">
+        <is>
+          <t>B.</t>
+        </is>
+      </c>
+      <c r="ED46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -22023,6 +23403,36 @@
       <c r="DY47" t="n">
         <v>18.73</v>
       </c>
+      <c r="DZ47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC47" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -22490,6 +23900,36 @@
       <c r="DY48" t="n">
         <v>16.56</v>
       </c>
+      <c r="DZ48" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA48" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC48" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -22952,6 +24392,36 @@
       <c r="DX49" t="inlineStr"/>
       <c r="DY49" t="n">
         <v>8.619999999999999</v>
+      </c>
+      <c r="DZ49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC49" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED49" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -23396,6 +24866,36 @@
       <c r="DW50" t="inlineStr"/>
       <c r="DX50" t="inlineStr"/>
       <c r="DY50" t="inlineStr"/>
+      <c r="DZ50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC50" t="inlineStr">
+        <is>
+          <t>B.</t>
+        </is>
+      </c>
+      <c r="ED50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -23858,6 +25358,36 @@
       </c>
       <c r="DY51" t="n">
         <v>42.3</v>
+      </c>
+      <c r="DZ51" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA51" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC51" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED51" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -24298,6 +25828,36 @@
       <c r="DW52" t="inlineStr"/>
       <c r="DX52" t="inlineStr"/>
       <c r="DY52" t="inlineStr"/>
+      <c r="DZ52" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA52" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC52" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -24735,6 +26295,36 @@
       <c r="DW53" t="inlineStr"/>
       <c r="DX53" t="inlineStr"/>
       <c r="DY53" t="inlineStr"/>
+      <c r="DZ53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA53" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC53" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -25185,6 +26775,36 @@
       <c r="DX54" t="inlineStr"/>
       <c r="DY54" t="n">
         <v>62.03</v>
+      </c>
+      <c r="DZ54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC54" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED54" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -25629,6 +27249,36 @@
       <c r="DW55" t="inlineStr"/>
       <c r="DX55" t="inlineStr"/>
       <c r="DY55" t="inlineStr"/>
+      <c r="DZ55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC55" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -26093,6 +27743,36 @@
       </c>
       <c r="DY56" t="n">
         <v>9.56</v>
+      </c>
+      <c r="DZ56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA56" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC56" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -26551,6 +28231,36 @@
       <c r="DY57" t="n">
         <v>25.54</v>
       </c>
+      <c r="DZ57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC57" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -27005,6 +28715,36 @@
       <c r="DX58" t="inlineStr"/>
       <c r="DY58" t="n">
         <v>26.5</v>
+      </c>
+      <c r="DZ58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA58" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC58" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -27449,6 +29189,36 @@
       <c r="DW59" t="inlineStr"/>
       <c r="DX59" t="inlineStr"/>
       <c r="DY59" t="inlineStr"/>
+      <c r="DZ59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC59" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -27896,6 +29666,36 @@
       <c r="DW60" t="inlineStr"/>
       <c r="DX60" t="inlineStr"/>
       <c r="DY60" t="inlineStr"/>
+      <c r="DZ60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA60" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC60" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -28365,6 +30165,36 @@
       <c r="DY61" t="n">
         <v>31.11</v>
       </c>
+      <c r="DZ61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC61" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -28826,6 +30656,36 @@
       <c r="DY62" t="n">
         <v>27</v>
       </c>
+      <c r="DZ62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -29288,6 +31148,36 @@
       <c r="DX63" t="inlineStr"/>
       <c r="DY63" t="n">
         <v>16.29</v>
+      </c>
+      <c r="DZ63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC63" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -29746,6 +31636,36 @@
       <c r="DY64" t="n">
         <v>23.18</v>
       </c>
+      <c r="DZ64" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA64" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED64" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -30201,6 +32121,36 @@
       <c r="DY65" t="n">
         <v>62.65</v>
       </c>
+      <c r="DZ65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA65" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EB65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC65" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -30670,6 +32620,36 @@
       <c r="DY66" t="n">
         <v>24.03</v>
       </c>
+      <c r="DZ66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC66" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -31140,6 +33120,36 @@
       </c>
       <c r="DY67" t="n">
         <v>13.07</v>
+      </c>
+      <c r="DZ67" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA67" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC67" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED67" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -31596,6 +33606,36 @@
       <c r="DY68" t="n">
         <v>20.57</v>
       </c>
+      <c r="DZ68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC68" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -32058,6 +34098,36 @@
       </c>
       <c r="DY69" t="n">
         <v>32.15</v>
+      </c>
+      <c r="DZ69" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC69" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED69" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -32514,6 +34584,36 @@
       <c r="DY70" t="n">
         <v>22.71</v>
       </c>
+      <c r="DZ70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -32979,6 +35079,36 @@
       <c r="DY71" t="n">
         <v>17.04</v>
       </c>
+      <c r="DZ71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA71" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EB71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC71" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED71" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -33446,6 +35576,36 @@
       <c r="DY72" t="n">
         <v>19.41</v>
       </c>
+      <c r="DZ72" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA72" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC72" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -33915,6 +36075,36 @@
       <c r="DY73" t="n">
         <v>53.49</v>
       </c>
+      <c r="DZ73" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED73" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -34378,6 +36568,36 @@
       <c r="DY74" t="n">
         <v>23.39</v>
       </c>
+      <c r="DZ74" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA74" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC74" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED74" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -34849,6 +37069,36 @@
       <c r="DY75" t="n">
         <v>17.74</v>
       </c>
+      <c r="DZ75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA75" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC75" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -35316,6 +37566,36 @@
       <c r="DY76" t="n">
         <v>11.33</v>
       </c>
+      <c r="DZ76" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC76" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED76" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -35779,6 +38059,36 @@
       <c r="DY77" t="n">
         <v>13.41</v>
       </c>
+      <c r="DZ77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC77" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED77" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -36242,6 +38552,36 @@
       <c r="DY78" t="n">
         <v>12.38</v>
       </c>
+      <c r="DZ78" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA78" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EB78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC78" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -36711,6 +39051,36 @@
       <c r="DY79" t="n">
         <v>10.92</v>
       </c>
+      <c r="DZ79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC79" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED79" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -37168,6 +39538,36 @@
       <c r="DY80" t="n">
         <v>8.69</v>
       </c>
+      <c r="DZ80" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA80" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC80" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -37634,6 +40034,36 @@
       </c>
       <c r="DY81" t="n">
         <v>18.02</v>
+      </c>
+      <c r="DZ81" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA81" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC81" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -38092,6 +40522,36 @@
       <c r="DY82" t="n">
         <v>42.42</v>
       </c>
+      <c r="DZ82" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -38550,6 +41010,36 @@
       <c r="DX83" t="inlineStr"/>
       <c r="DY83" t="n">
         <v>17.55</v>
+      </c>
+      <c r="DZ83" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC83" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -39015,6 +41505,36 @@
       <c r="DX84" t="inlineStr"/>
       <c r="DY84" t="n">
         <v>39.17</v>
+      </c>
+      <c r="DZ84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC84" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -39471,6 +41991,36 @@
       <c r="DY85" t="n">
         <v>38.13</v>
       </c>
+      <c r="DZ85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC85" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -39922,6 +42472,36 @@
       <c r="DY86" t="n">
         <v>12.13</v>
       </c>
+      <c r="DZ86" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED86" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -40373,6 +42953,36 @@
       <c r="DY87" t="n">
         <v>6.86</v>
       </c>
+      <c r="DZ87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED87" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -40831,6 +43441,36 @@
       <c r="DX88" t="inlineStr"/>
       <c r="DY88" t="n">
         <v>5.55</v>
+      </c>
+      <c r="DZ88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED88" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -41282,6 +43922,36 @@
       <c r="DX89" t="inlineStr"/>
       <c r="DY89" t="n">
         <v>39</v>
+      </c>
+      <c r="DZ89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC89" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED89" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -41716,6 +44386,36 @@
       <c r="DW90" t="inlineStr"/>
       <c r="DX90" t="inlineStr"/>
       <c r="DY90" t="inlineStr"/>
+      <c r="DZ90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC90" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -42175,6 +44875,36 @@
       <c r="DY91" t="n">
         <v>12.45</v>
       </c>
+      <c r="DZ91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC91" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -42641,6 +45371,36 @@
       </c>
       <c r="DY92" t="n">
         <v>58.81</v>
+      </c>
+      <c r="DZ92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC92" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED92" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -43097,6 +45857,36 @@
       <c r="DY93" t="n">
         <v>24.7</v>
       </c>
+      <c r="DZ93" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC93" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED93" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -43564,6 +46354,36 @@
       <c r="DY94" t="n">
         <v>12.76</v>
       </c>
+      <c r="DZ94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC94" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED94" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -44023,6 +46843,36 @@
       <c r="DY95" t="n">
         <v>9.49</v>
       </c>
+      <c r="DZ95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -44487,6 +47337,36 @@
       </c>
       <c r="DY96" t="n">
         <v>30.45</v>
+      </c>
+      <c r="DZ96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC96" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -44943,6 +47823,36 @@
       <c r="DY97" t="n">
         <v>12.12</v>
       </c>
+      <c r="DZ97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC97" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED97" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -45414,6 +48324,36 @@
       <c r="DY98" t="n">
         <v>60.74</v>
       </c>
+      <c r="DZ98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC98" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -45878,6 +48818,36 @@
       </c>
       <c r="DY99" t="n">
         <v>10.01</v>
+      </c>
+      <c r="DZ99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC99" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -46333,6 +49303,36 @@
       </c>
       <c r="DY100" t="n">
         <v>7.12</v>
+      </c>
+      <c r="DZ100" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA100" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC100" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED100" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -46777,6 +49777,36 @@
       <c r="DW101" t="inlineStr"/>
       <c r="DX101" t="inlineStr"/>
       <c r="DY101" t="inlineStr"/>
+      <c r="DZ101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC101" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -47241,6 +50271,36 @@
       </c>
       <c r="DY102" t="n">
         <v>18.24</v>
+      </c>
+      <c r="DZ102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC102" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -47695,6 +50755,36 @@
       <c r="DY103" t="n">
         <v>16.43</v>
       </c>
+      <c r="DZ103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC103" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED103" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -48159,6 +51249,36 @@
       <c r="DX104" t="inlineStr"/>
       <c r="DY104" t="n">
         <v>10.98</v>
+      </c>
+      <c r="DZ104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA104" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -48615,6 +51735,36 @@
       <c r="DY105" t="n">
         <v>24.75</v>
       </c>
+      <c r="DZ105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA105" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC105" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED105" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -49066,6 +52216,36 @@
       <c r="DY106" t="n">
         <v>19.3</v>
       </c>
+      <c r="DZ106" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA106" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC106" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED106" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -49528,6 +52708,36 @@
       </c>
       <c r="DY107" t="n">
         <v>13.72</v>
+      </c>
+      <c r="DZ107" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA107" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC107" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED107" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -49976,6 +53186,36 @@
       <c r="DW108" t="inlineStr"/>
       <c r="DX108" t="inlineStr"/>
       <c r="DY108" t="inlineStr"/>
+      <c r="DZ108" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC108" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -50431,6 +53671,36 @@
       <c r="DY109" t="n">
         <v>32.79</v>
       </c>
+      <c r="DZ109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC109" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -50890,6 +54160,36 @@
       <c r="DY110" t="n">
         <v>48.39</v>
       </c>
+      <c r="DZ110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA110" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC110" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED110" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -51354,6 +54654,36 @@
       </c>
       <c r="DY111" t="n">
         <v>23.86</v>
+      </c>
+      <c r="DZ111" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC111" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -51788,6 +55118,36 @@
       <c r="DW112" t="inlineStr"/>
       <c r="DX112" t="inlineStr"/>
       <c r="DY112" t="inlineStr"/>
+      <c r="DZ112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA112" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -52231,6 +55591,36 @@
       <c r="DW113" t="inlineStr"/>
       <c r="DX113" t="inlineStr"/>
       <c r="DY113" t="inlineStr"/>
+      <c r="DZ113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC113" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -52689,6 +56079,36 @@
       <c r="DX114" t="inlineStr"/>
       <c r="DY114" t="n">
         <v>14.27</v>
+      </c>
+      <c r="DZ114" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA114" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC114" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED114" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -53121,6 +56541,36 @@
       <c r="DW115" t="inlineStr"/>
       <c r="DX115" t="inlineStr"/>
       <c r="DY115" t="inlineStr"/>
+      <c r="DZ115" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC115" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -53586,6 +57036,36 @@
       <c r="DY116" t="n">
         <v>7.02</v>
       </c>
+      <c r="DZ116" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC116" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -54052,6 +57532,36 @@
       </c>
       <c r="DY117" t="n">
         <v>20.88</v>
+      </c>
+      <c r="DZ117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC117" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -54496,6 +58006,36 @@
       <c r="DW118" t="inlineStr"/>
       <c r="DX118" t="inlineStr"/>
       <c r="DY118" t="inlineStr"/>
+      <c r="DZ118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC118" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -54952,6 +58492,36 @@
       <c r="DX119" t="inlineStr"/>
       <c r="DY119" t="n">
         <v>20.71</v>
+      </c>
+      <c r="DZ119" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA119" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC119" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -55404,6 +58974,36 @@
       <c r="DY120" t="n">
         <v>21.64</v>
       </c>
+      <c r="DZ120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC120" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -55857,6 +59457,36 @@
       <c r="DY121" t="n">
         <v>19.46</v>
       </c>
+      <c r="DZ121" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA121" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC121" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -56309,6 +59939,36 @@
       <c r="DX122" t="inlineStr"/>
       <c r="DY122" t="n">
         <v>20.57</v>
+      </c>
+      <c r="DZ122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -56761,6 +60421,36 @@
       <c r="DY123" t="n">
         <v>18.91</v>
       </c>
+      <c r="DZ123" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA123" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC123" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -57216,6 +60906,36 @@
       <c r="DY124" t="n">
         <v>12.24</v>
       </c>
+      <c r="DZ124" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA124" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC124" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED124" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -57671,6 +61391,36 @@
       <c r="DY125" t="n">
         <v>13.86</v>
       </c>
+      <c r="DZ125" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA125" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC125" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED125" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -58130,6 +61880,36 @@
       <c r="DY126" t="n">
         <v>37</v>
       </c>
+      <c r="DZ126" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA126" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC126" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -58593,6 +62373,36 @@
       <c r="DY127" t="n">
         <v>4.77</v>
       </c>
+      <c r="DZ127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED127" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -59059,6 +62869,36 @@
       </c>
       <c r="DY128" t="n">
         <v>73.03</v>
+      </c>
+      <c r="DZ128" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA128" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC128" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED128" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -59503,6 +63343,36 @@
       <c r="DW129" t="inlineStr"/>
       <c r="DX129" t="inlineStr"/>
       <c r="DY129" t="inlineStr"/>
+      <c r="DZ129" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA129" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC129" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED129" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -59946,6 +63816,36 @@
       <c r="DW130" t="inlineStr"/>
       <c r="DX130" t="inlineStr"/>
       <c r="DY130" t="inlineStr"/>
+      <c r="DZ130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA130" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED130" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -60383,6 +64283,36 @@
       <c r="DW131" t="inlineStr"/>
       <c r="DX131" t="inlineStr"/>
       <c r="DY131" t="inlineStr"/>
+      <c r="DZ131" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA131" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC131" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED131" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -60830,6 +64760,36 @@
       <c r="DW132" t="inlineStr"/>
       <c r="DX132" t="inlineStr"/>
       <c r="DY132" t="inlineStr"/>
+      <c r="DZ132" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC132" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED132" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -61263,6 +65223,36 @@
       <c r="DW133" t="inlineStr"/>
       <c r="DX133" t="inlineStr"/>
       <c r="DY133" t="inlineStr"/>
+      <c r="DZ133" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA133" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC133" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED133" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -61700,6 +65690,36 @@
       <c r="DW134" t="inlineStr"/>
       <c r="DX134" t="inlineStr"/>
       <c r="DY134" t="inlineStr"/>
+      <c r="DZ134" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA134" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC134" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED134" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -62143,6 +66163,36 @@
       <c r="DW135" t="inlineStr"/>
       <c r="DX135" t="inlineStr"/>
       <c r="DY135" t="inlineStr"/>
+      <c r="DZ135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC135" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED135" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -62609,6 +66659,36 @@
       <c r="DX136" t="inlineStr"/>
       <c r="DY136" t="n">
         <v>37.67</v>
+      </c>
+      <c r="DZ136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC136" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED136" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -63053,6 +67133,36 @@
       <c r="DW137" t="inlineStr"/>
       <c r="DX137" t="inlineStr"/>
       <c r="DY137" t="inlineStr"/>
+      <c r="DZ137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC137" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED137" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -63516,6 +67626,36 @@
       <c r="DY138" t="n">
         <v>25.24</v>
       </c>
+      <c r="DZ138" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA138" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED138" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -63986,6 +68126,36 @@
       </c>
       <c r="DY139" t="n">
         <v>26.64</v>
+      </c>
+      <c r="DZ139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC139" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -64448,6 +68618,36 @@
       <c r="DY140" t="n">
         <v>27.44</v>
       </c>
+      <c r="DZ140" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA140" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED140" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -64914,6 +69114,36 @@
       <c r="DX141" t="inlineStr"/>
       <c r="DY141" t="n">
         <v>29.4</v>
+      </c>
+      <c r="DZ141" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC141" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -65378,6 +69608,36 @@
       <c r="DY142" t="n">
         <v>47.93</v>
       </c>
+      <c r="DZ142" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA142" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC142" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED142" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -65839,6 +70099,36 @@
       <c r="DY143" t="n">
         <v>23.69</v>
       </c>
+      <c r="DZ143" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA143" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC143" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED143" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -66312,6 +70602,36 @@
       <c r="DY144" t="n">
         <v>20.11</v>
       </c>
+      <c r="DZ144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC144" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED144" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -66777,6 +71097,36 @@
       <c r="DY145" t="n">
         <v>14.71</v>
       </c>
+      <c r="DZ145" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA145" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -67243,6 +71593,36 @@
       </c>
       <c r="DY146" t="n">
         <v>45.56</v>
+      </c>
+      <c r="DZ146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA146" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EB146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC146" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED146" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -67698,6 +72078,36 @@
       <c r="DX147" t="inlineStr"/>
       <c r="DY147" t="n">
         <v>47.63</v>
+      </c>
+      <c r="DZ147" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA147" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC147" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED147" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -68153,6 +72563,36 @@
       </c>
       <c r="DY148" t="n">
         <v>35.67</v>
+      </c>
+      <c r="DZ148" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="EA148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED148" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -68597,6 +73037,36 @@
       <c r="DW149" t="inlineStr"/>
       <c r="DX149" t="inlineStr"/>
       <c r="DY149" t="inlineStr"/>
+      <c r="DZ149" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA149" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC149" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -69063,6 +73533,36 @@
       </c>
       <c r="DY150" t="n">
         <v>63.13</v>
+      </c>
+      <c r="DZ150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC150" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED150" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -69507,6 +74007,36 @@
       <c r="DW151" t="inlineStr"/>
       <c r="DX151" t="inlineStr"/>
       <c r="DY151" t="inlineStr"/>
+      <c r="DZ151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -69972,6 +74502,36 @@
       <c r="DY152" t="n">
         <v>2.88</v>
       </c>
+      <c r="DZ152" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA152" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC152" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED152" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EE152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -70435,6 +74995,36 @@
       <c r="DY153" t="n">
         <v>12.34</v>
       </c>
+      <c r="DZ153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA153" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC153" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED153" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -70900,6 +75490,36 @@
       <c r="DY154" t="n">
         <v>11.89</v>
       </c>
+      <c r="DZ154" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="EA154" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC154" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="ED154" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -71367,6 +75987,36 @@
       <c r="DY155" t="n">
         <v>7.8</v>
       </c>
+      <c r="DZ155" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA155" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC155" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED155" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -71830,6 +76480,36 @@
       <c r="DY156" t="n">
         <v>30.41</v>
       </c>
+      <c r="DZ156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC156" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED156" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -72293,6 +76973,36 @@
       <c r="DY157" t="n">
         <v>30.93</v>
       </c>
+      <c r="DZ157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -72763,6 +77473,36 @@
       </c>
       <c r="DY158" t="n">
         <v>18.34</v>
+      </c>
+      <c r="DZ158" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA158" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC158" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED158" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -73207,6 +77947,36 @@
       <c r="DW159" t="inlineStr"/>
       <c r="DX159" t="inlineStr"/>
       <c r="DY159" t="inlineStr"/>
+      <c r="DZ159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC159" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="ED159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -73677,6 +78447,36 @@
       </c>
       <c r="DY160" t="n">
         <v>17.79</v>
+      </c>
+      <c r="DZ160" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC160" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -74129,6 +78929,36 @@
       <c r="DY161" t="n">
         <v>56.47</v>
       </c>
+      <c r="DZ161" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="EA161" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC161" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="ED161" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -74584,6 +79414,36 @@
       <c r="DY162" t="n">
         <v>34.56</v>
       </c>
+      <c r="DZ162" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA162" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC162" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED162" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -75036,6 +79896,36 @@
       <c r="DX163" t="inlineStr"/>
       <c r="DY163" t="n">
         <v>24.76</v>
+      </c>
+      <c r="DZ163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC163" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED163" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -75488,6 +80378,36 @@
       <c r="DY164" t="n">
         <v>27.72</v>
       </c>
+      <c r="DZ164" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EA164" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC164" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED164" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -75941,6 +80861,36 @@
       <c r="DY165" t="n">
         <v>18.74</v>
       </c>
+      <c r="DZ165" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -76395,6 +81345,36 @@
       <c r="DX166" t="inlineStr"/>
       <c r="DY166" t="n">
         <v>30.34</v>
+      </c>
+      <c r="DZ166" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA166" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC166" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED166" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="EE166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -76850,6 +81830,36 @@
       </c>
       <c r="DY167" t="n">
         <v>28.77</v>
+      </c>
+      <c r="DZ167" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA167" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC167" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED167" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -77294,6 +82304,36 @@
       <c r="DW168" t="inlineStr"/>
       <c r="DX168" t="inlineStr"/>
       <c r="DY168" t="inlineStr"/>
+      <c r="DZ168" t="inlineStr">
+        <is>
+          <t>N/</t>
+        </is>
+      </c>
+      <c r="EA168" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC168" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED168" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -77754,6 +82794,36 @@
       </c>
       <c r="DY169" t="n">
         <v>21.62</v>
+      </c>
+      <c r="DZ169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -78198,6 +83268,36 @@
       <c r="DW170" t="inlineStr"/>
       <c r="DX170" t="inlineStr"/>
       <c r="DY170" t="inlineStr"/>
+      <c r="DZ170" t="inlineStr">
+        <is>
+          <t>N/</t>
+        </is>
+      </c>
+      <c r="EA170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC170" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED170" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -78641,6 +83741,36 @@
       <c r="DW171" t="inlineStr"/>
       <c r="DX171" t="inlineStr"/>
       <c r="DY171" t="inlineStr"/>
+      <c r="DZ171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -79084,6 +84214,36 @@
       <c r="DW172" t="inlineStr"/>
       <c r="DX172" t="inlineStr"/>
       <c r="DY172" t="inlineStr"/>
+      <c r="DZ172" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA172" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC172" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED172" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -79517,6 +84677,36 @@
       <c r="DW173" t="inlineStr"/>
       <c r="DX173" t="inlineStr"/>
       <c r="DY173" t="inlineStr"/>
+      <c r="DZ173" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA173" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC173" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED173" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -79960,6 +85150,36 @@
       <c r="DW174" t="inlineStr"/>
       <c r="DX174" t="inlineStr"/>
       <c r="DY174" t="inlineStr"/>
+      <c r="DZ174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC174" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED174" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -80399,6 +85619,36 @@
       <c r="DW175" t="inlineStr"/>
       <c r="DX175" t="inlineStr"/>
       <c r="DY175" t="inlineStr"/>
+      <c r="DZ175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA175" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EB175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED175" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -80838,6 +86088,36 @@
       <c r="DW176" t="inlineStr"/>
       <c r="DX176" t="inlineStr"/>
       <c r="DY176" t="inlineStr"/>
+      <c r="DZ176" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA176" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC176" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED176" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -81281,6 +86561,36 @@
       <c r="DW177" t="inlineStr"/>
       <c r="DX177" t="inlineStr"/>
       <c r="DY177" t="inlineStr"/>
+      <c r="DZ177" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA177" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC177" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED177" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -81720,6 +87030,36 @@
       <c r="DW178" t="inlineStr"/>
       <c r="DX178" t="inlineStr"/>
       <c r="DY178" t="inlineStr"/>
+      <c r="DZ178" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA178" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC178" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED178" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -82161,6 +87501,36 @@
       <c r="DW179" t="inlineStr"/>
       <c r="DX179" t="inlineStr"/>
       <c r="DY179" t="inlineStr"/>
+      <c r="DZ179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -82600,6 +87970,36 @@
       <c r="DW180" t="inlineStr"/>
       <c r="DX180" t="inlineStr"/>
       <c r="DY180" t="inlineStr"/>
+      <c r="DZ180" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA180" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC180" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED180" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -83065,6 +88465,36 @@
       <c r="DY181" t="n">
         <v>2.61</v>
       </c>
+      <c r="DZ181" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA181" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EB181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC181" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED181" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -83525,6 +88955,36 @@
       </c>
       <c r="DY182" t="n">
         <v>26.21</v>
+      </c>
+      <c r="DZ182" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA182" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC182" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED182" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -83969,6 +89429,36 @@
       <c r="DW183" t="inlineStr"/>
       <c r="DX183" t="inlineStr"/>
       <c r="DY183" t="inlineStr"/>
+      <c r="DZ183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC183" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -84426,6 +89916,36 @@
       <c r="DY184" t="n">
         <v>18.65</v>
       </c>
+      <c r="DZ184" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA184" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -84895,6 +90415,36 @@
       <c r="DY185" t="n">
         <v>8.81</v>
       </c>
+      <c r="DZ185" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA185" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC185" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED185" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EE185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -85357,6 +90907,36 @@
       </c>
       <c r="DY186" t="n">
         <v>37.62</v>
+      </c>
+      <c r="DZ186" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA186" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC186" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -85797,6 +91377,36 @@
       <c r="DW187" t="inlineStr"/>
       <c r="DX187" t="inlineStr"/>
       <c r="DY187" t="inlineStr"/>
+      <c r="DZ187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA187" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC187" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED187" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -86254,6 +91864,36 @@
       <c r="DY188" t="n">
         <v>20.47</v>
       </c>
+      <c r="DZ188" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC188" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -86714,6 +92354,36 @@
       <c r="DX189" t="inlineStr"/>
       <c r="DY189" t="n">
         <v>17.5</v>
+      </c>
+      <c r="DZ189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC189" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -87148,6 +92818,36 @@
       <c r="DW190" t="inlineStr"/>
       <c r="DX190" t="inlineStr"/>
       <c r="DY190" t="inlineStr"/>
+      <c r="DZ190" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC190" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -87610,6 +93310,36 @@
       <c r="DX191" t="inlineStr"/>
       <c r="DY191" t="n">
         <v>2.35</v>
+      </c>
+      <c r="DZ191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -88054,6 +93784,36 @@
       <c r="DW192" t="inlineStr"/>
       <c r="DX192" t="inlineStr"/>
       <c r="DY192" t="inlineStr"/>
+      <c r="DZ192" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA192" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC192" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -88516,6 +94276,36 @@
       <c r="DX193" t="inlineStr"/>
       <c r="DY193" t="n">
         <v>7.69</v>
+      </c>
+      <c r="DZ193" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -88950,6 +94740,36 @@
       <c r="DW194" t="inlineStr"/>
       <c r="DX194" t="inlineStr"/>
       <c r="DY194" t="inlineStr"/>
+      <c r="DZ194" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA194" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC194" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED194" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -89387,6 +95207,36 @@
       <c r="DW195" t="inlineStr"/>
       <c r="DX195" t="inlineStr"/>
       <c r="DY195" t="inlineStr"/>
+      <c r="DZ195" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EA195" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC195" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="ED195" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EE195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -89854,6 +95704,36 @@
       <c r="DY196" t="n">
         <v>22.3</v>
       </c>
+      <c r="DZ196" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC196" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED196" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -90320,6 +96200,36 @@
       <c r="DX197" t="inlineStr"/>
       <c r="DY197" t="n">
         <v>24.89</v>
+      </c>
+      <c r="DZ197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC197" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED197" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -90760,6 +96670,36 @@
       <c r="DW198" t="inlineStr"/>
       <c r="DX198" t="inlineStr"/>
       <c r="DY198" t="inlineStr"/>
+      <c r="DZ198" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EA198" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC198" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -91224,6 +97164,36 @@
       </c>
       <c r="DY199" t="n">
         <v>40.01</v>
+      </c>
+      <c r="DZ199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC199" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -91677,6 +97647,36 @@
       <c r="DX200" t="inlineStr"/>
       <c r="DY200" t="n">
         <v>44.57</v>
+      </c>
+      <c r="DZ200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA200" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC200" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -92133,6 +98133,36 @@
       <c r="DY201" t="n">
         <v>56.6</v>
       </c>
+      <c r="DZ201" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA201" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC201" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED201" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -92586,6 +98616,36 @@
       <c r="DY202" t="n">
         <v>8.06</v>
       </c>
+      <c r="DZ202" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA202" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC202" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="ED202" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -93039,6 +99099,36 @@
       <c r="DY203" t="n">
         <v>30.03</v>
       </c>
+      <c r="DZ203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="ED203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -93504,6 +99594,36 @@
       <c r="DY204" t="n">
         <v>31.18</v>
       </c>
+      <c r="DZ204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA204" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EB204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC204" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED204" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -93963,6 +100083,36 @@
       <c r="DY205" t="n">
         <v>15.4</v>
       </c>
+      <c r="DZ205" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC205" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="ED205" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EE205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -94429,6 +100579,36 @@
       </c>
       <c r="DY206" t="n">
         <v>21.28</v>
+      </c>
+      <c r="DZ206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA206" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC206" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="ED206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -94873,6 +101053,36 @@
       <c r="DW207" t="inlineStr"/>
       <c r="DX207" t="inlineStr"/>
       <c r="DY207" t="inlineStr"/>
+      <c r="DZ207" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EB207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C </t>
+        </is>
+      </c>
+      <c r="ED207" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -95310,6 +101520,36 @@
       <c r="DW208" t="inlineStr"/>
       <c r="DX208" t="inlineStr"/>
       <c r="DY208" t="inlineStr"/>
+      <c r="DZ208" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EA208" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EB208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED208" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="EE208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -95765,6 +102005,36 @@
       <c r="DY209" t="n">
         <v>42.73</v>
       </c>
+      <c r="DZ209" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EA209" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC209" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="ED209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -96229,6 +102499,36 @@
       <c r="DX210" t="inlineStr"/>
       <c r="DY210" t="n">
         <v>21.17</v>
+      </c>
+      <c r="DZ210" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC210" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED210" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EE210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -96663,6 +102963,36 @@
       <c r="DW211" t="inlineStr"/>
       <c r="DX211" t="inlineStr"/>
       <c r="DY211" t="inlineStr"/>
+      <c r="DZ211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA211" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC211" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -97106,6 +103436,36 @@
       <c r="DW212" t="inlineStr"/>
       <c r="DX212" t="inlineStr"/>
       <c r="DY212" t="inlineStr"/>
+      <c r="DZ212" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA212" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EB212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC212" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED212" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -97539,6 +103899,36 @@
       <c r="DW213" t="inlineStr"/>
       <c r="DX213" t="inlineStr"/>
       <c r="DY213" t="inlineStr"/>
+      <c r="DZ213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EA213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC213" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="ED213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="EE213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -97982,6 +104372,36 @@
       <c r="DW214" t="inlineStr"/>
       <c r="DX214" t="inlineStr"/>
       <c r="DY214" t="inlineStr"/>
+      <c r="DZ214" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EA214" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="EB214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC214" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="ED214" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -98451,6 +104871,36 @@
       <c r="DY215" t="n">
         <v>25.63</v>
       </c>
+      <c r="DZ215" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="EA215" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="EB215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC215" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="ED215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="EE215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -98909,6 +105359,36 @@
       <c r="DX216" t="inlineStr"/>
       <c r="DY216" t="n">
         <v>31.72</v>
+      </c>
+      <c r="DZ216" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="EA216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EB216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC216" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="ED216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EE216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
